--- a/medicine/Enfance/Elisa_Villebrun/Elisa_Villebrun.xlsx
+++ b/medicine/Enfance/Elisa_Villebrun/Elisa_Villebrun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elisa Villebrun, née le 28 novembre 1980, est une écrivaine jeunesse française[1].
-Elle est membre de la Ligue des auteurs professionnels depuis 2019 et élue au Conseil d'Administration de la Ligue depuis 2021[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elisa Villebrun, née le 28 novembre 1980, est une écrivaine jeunesse française.
+Elle est membre de la Ligue des auteurs professionnels depuis 2019 et élue au Conseil d'Administration de la Ligue depuis 2021.
 </t>
         </is>
       </c>
@@ -514,35 +526,228 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Romans jeunesses
-Série Yamay[3]
-Le Monde des reflets, Éditions Le Verger des Hespérides, 2018
+          <t>Romans jeunesses</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Série Yamay[3]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le Monde des reflets, Éditions Le Verger des Hespérides, 2018
 Le cavalier de l'apocalypse, Éditions Le Verger des Hespérides, 2019
 La révélation du phénix, Éditions Le Verger des Hespérides, 2019
 Le fantôme d'Irehca, Éditions Le Verger des Hespérides, 2020
 Le baiser de la Mort, Éditions Le Verger des Hespérides, 2020
-La légende des héritiers, Éditions Le Verger des Hespérides, 2020[4]
-Série Les enquêtes de Konan et Amma[5],[6]
-Le mystère de la statue Pygmée, Nimba éditions, Editis, 2020
+La légende des héritiers, Éditions Le Verger des Hespérides, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Romans jeunesses</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Les enquêtes de Konan et Amma[5],[6]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le mystère de la statue Pygmée, Nimba éditions, Editis, 2020
 Double M a frappé, Nimba éditions, Editis, 2021
 Enlèvement à l'école, Nimba éditions, Editis, 2021
-Le secret du cabanon hanté, Nimba éditions, Editis, 2022
-Série Les voyageurs de la danse[7]
-Margot et Rudy et la petite danseuse de Degas, Bayard éditions, 2021
+Le secret du cabanon hanté, Nimba éditions, Editis, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans jeunesses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Les voyageurs de la danse[7]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Margot et Rudy et la petite danseuse de Degas, Bayard éditions, 2021
 Margot et Rudy à la cour du Roi Soleil, Bayard éditions, 2021
 Margot et Rudy et la danse des dieux indiens, Bayard éditions, 2021
 Margot et Rudy au Moulin de la Galette, Bayard éditions, 2022
 Dans les pas de Joséphine Baker, Bayard éditions, 2023
-Margot et Rudy et la naissance des pointes, Bayard éditions, 2023
-Série Jasper et la brigade du Flair
-La première mission, Rageot, juin 2023 - Nommé au Prix Jeunesse Quais du Polar de Lyon 2024
-Une enquête glacée, Rageot, septembre 2023
-Album et Kamishibaï[8]
-Un secret d'éternité, l'album, Éditions du Pas de l'échelle, 2018
-Un secret d'éternité, le Kamishibaï, Éditions du Pas de l'échelle, 2018
-Presse jeunesse[9]
-Planète J'aime Lire
-La curieuse rentrée de Dégnan, Bayard Presse, Planète J'aime Lire N°28, septembre 2018
+Margot et Rudy et la naissance des pointes, Bayard éditions, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans jeunesses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Jasper et la brigade du Flair</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La première mission, Rageot, juin 2023 - Nommé au Prix Jeunesse Quais du Polar de Lyon 2024
+Une enquête glacée, Rageot, septembre 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Album et Kamishibaï[8]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Un secret d'éternité, l'album, Éditions du Pas de l'échelle, 2018
+Un secret d'éternité, le Kamishibaï, Éditions du Pas de l'échelle, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Presse jeunesse[9]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Planète J'aime Lire</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La curieuse rentrée de Dégnan, Bayard Presse, Planète J'aime Lire N°28, septembre 2018
 Le pagne aux oiseaux blancs, Bayard Presse, Planète J'aime Lire N°32, janvier 2019
 Le secret de la plantation, Bayard Presse, Planète J'aime Lire N°37, juin 2019
 Une enquête savonneuse, Bayard Presse, Planète J'aime Lire N°41, novembre 2019
@@ -555,58 +760,208 @@
 Crois-en toi !, Bayard Presse, Planète J'aime Lire N°66, février 2022
 Le mystère de la kora disparue, Planète J'aime Lire N°70, juin 2022
 Mon meilleur cousin, Planète J'aime Lire N°76, janvier 2023
-Le défi des télescopes, Planète J'aime Lire N°84, octobre 2023
-J'aime Lire
-La rentrée des faiseurs de rêves, J'aime Lire, N°560, septembre 2023
-Je bouquine
-Frères et soeur et pas qu'à moitié !, Je bouquine N°470, avril 2023
+Le défi des télescopes, Planète J'aime Lire N°84, octobre 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Presse jeunesse[9]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>J'aime Lire</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rentrée des faiseurs de rêves, J'aime Lire, N°560, septembre 2023
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Presse jeunesse[9]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Je bouquine</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Frères et soeur et pas qu'à moitié !, Je bouquine N°470, avril 2023
 Une chanson pour deux, Je bouquine N° 472, juin 2023
-Du bruit dans les abysses, Je bouquine N°474, août 2023
-Radio - Podcast
-Les histoires suivantes ont fait l'objet de diffusion (direct et podcast) sur RFI dans l'émission "7 milliards de voisins, l'école à la radio" du 4 mai au 1er juin 2020 : 
-Le secret de la plantation[10]
-Une enquête savonneuse[11]
-Le pagne aux oiseaux blancs[12]
-La curieuse rentrée de Dégnan[13]
+Du bruit dans les abysses, Je bouquine N°474, août 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Radio - Podcast</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les histoires suivantes ont fait l'objet de diffusion (direct et podcast) sur RFI dans l'émission "7 milliards de voisins, l'école à la radio" du 4 mai au 1er juin 2020 : 
+Le secret de la plantation
+Une enquête savonneuse
+Le pagne aux oiseaux blancs
+La curieuse rentrée de Dégnan
 Passage à la radio ATM le 27 avril 2022 avec l'ONG Tous pour la relance sur les bienfaits de la lecture.
 L'histoire "Mystère à Grand-Bassam" a été lue par Alpha Blondy à la bibliothèque municipale de Grand-Bassam aux enfants de CE1 et CE2 des écoles publiques du centre historique le 13 janvier 2023 à l'occasion de la cérémonie élevant le chanteur au titre de citoyen d'honneur de la ville. 
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Elisa_Villebrun</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Elisa_Villebrun</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Critiques littéraires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur la série "Yamay"
-"Elisa Villebrun propose sa série Yamay", Fraternité Matin[14]
-"Yamay est à la fois reflet de la vie et monde imaginaire", Fraternité Matin[15]
-"Le monde merveilleux de Yamay", Baab Magazine[16]
-Sur le site des professeurs documentalistes de l'académie de Limoges[17]
-Sur la série "Les voyageurs de la danse"
-"Ballerines et Voyages dans le temps : Elisa Villebrun", Actualitté[18]
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sur la série "Yamay"</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>"Elisa Villebrun propose sa série Yamay", Fraternité Matin
+"Yamay est à la fois reflet de la vie et monde imaginaire", Fraternité Matin
+"Le monde merveilleux de Yamay", Baab Magazine
+Sur le site des professeurs documentalistes de l'académie de Limoges</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elisa_Villebrun</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Critiques littéraires</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sur la série "Les voyageurs de la danse"</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Ballerines et Voyages dans le temps : Elisa Villebrun", Actualitté
 </t>
         </is>
       </c>
